--- a/docs/OVW Sheets/OVWDemo_service_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_service_listing.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -62,7 +57,7 @@
     <sheet name="fr_be" sheetId="48" r:id="rId48"/>
     <sheet name="Sheet25" sheetId="49" r:id="rId49"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="235">
   <si>
     <t>http://www.cisco.com/web/DE/solutions/collaboration/services.html</t>
   </si>
@@ -249,9 +244,6 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/BE/nl/products/security/services.html</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/BG/solutions/borderless/services.html</t>
@@ -870,7 +862,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -883,7 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -945,7 +936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -980,7 +971,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,7 +1148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1199,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1303,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1370,9 +1361,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1383,7 +1376,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1396,68 +1389,39 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
+      <c r="A2" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A1" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1480,7 +1444,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1494,10 +1458,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1508,7 +1472,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1522,7 +1486,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1536,7 +1500,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1577,7 +1541,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1591,10 +1555,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1605,7 +1569,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1619,7 +1583,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1633,7 +1597,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1676,7 +1640,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1690,10 +1654,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1704,7 +1668,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1718,7 +1682,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1732,7 +1696,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1773,7 +1737,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1788,10 +1752,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
@@ -1803,7 +1767,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
@@ -1818,7 +1782,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>18</v>
@@ -1833,7 +1797,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>20</v>
@@ -1862,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1842,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1892,26 +1856,26 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>59</v>
+      <c r="A2" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1920,45 +1884,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId3" display="http://www.cisco.com/web/DE/products/security/services.html"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A1" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1982,7 +1914,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1997,10 +1929,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2012,7 +1944,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2027,7 +1959,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2042,7 +1974,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2085,7 +2017,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2100,10 +2032,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2115,7 +2047,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2130,7 +2062,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2145,7 +2077,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2188,7 +2120,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2203,10 +2135,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2218,7 +2150,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2233,7 +2165,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2248,7 +2180,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2309,7 +2241,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2390,7 +2322,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2405,10 +2337,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2420,7 +2352,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2435,7 +2367,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2450,7 +2382,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2479,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E1:E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2425,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2507,26 +2439,26 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
+      <c r="A2" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2535,44 +2467,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A1" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2580,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E1:E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2495,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2609,10 +2510,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2624,7 +2525,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2639,7 +2540,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2651,21 +2552,6 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2696,7 +2582,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2711,10 +2597,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2726,7 +2612,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2741,7 +2627,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2756,7 +2642,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2801,7 +2687,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2816,10 +2702,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2831,7 +2717,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2846,7 +2732,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2861,7 +2747,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2890,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,7 +2793,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2921,17 +2807,17 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>59</v>
+      <c r="A2" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -2940,7 +2826,7 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2949,44 +2835,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
     <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2994,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3023,32 +2878,32 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>128</v>
+      <c r="A3" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -3057,55 +2912,18 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="E3" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A3" r:id="rId9"/>
-    <hyperlink ref="A4" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="E1" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3130,7 +2948,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3142,15 +2960,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3159,12 +2977,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3176,12 +2994,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3193,12 +3011,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3210,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3251,7 +3069,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3263,15 +3081,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3280,12 +3098,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3297,12 +3115,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3314,12 +3132,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3331,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
@@ -3372,7 +3190,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3387,10 +3205,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3402,7 +3220,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3417,7 +3235,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3432,7 +3250,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3490,7 +3308,7 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -3551,7 +3369,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3623,7 +3441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
@@ -3638,7 +3456,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3653,10 +3471,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3668,7 +3486,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3683,7 +3501,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3698,7 +3516,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3744,7 +3562,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3756,15 +3574,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3773,12 +3591,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3790,12 +3608,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3807,12 +3625,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3824,7 +3642,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
@@ -3865,7 +3683,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3880,10 +3698,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3895,7 +3713,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3910,7 +3728,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3925,7 +3743,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3971,7 +3789,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3983,15 +3801,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4000,12 +3818,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4017,12 +3835,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4034,12 +3852,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4051,7 +3869,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4104,15 +3922,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4121,12 +3939,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4138,12 +3956,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4155,12 +3973,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4172,7 +3990,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4213,7 +4031,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4225,15 +4043,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4242,12 +4060,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4259,12 +4077,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4276,12 +4094,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4293,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4317,10 +4135,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,7 +4152,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4346,22 +4164,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,7 +4189,7 @@
         <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4378,53 +4198,18 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A3" r:id="rId9"/>
-    <hyperlink ref="A4" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="E1" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4449,7 +4234,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4461,15 +4246,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4478,12 +4263,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4495,12 +4280,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4512,12 +4297,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4529,7 +4314,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
@@ -4570,7 +4355,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4585,10 +4370,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4600,7 +4385,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4615,7 +4400,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4630,7 +4415,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4674,7 +4459,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4689,10 +4474,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4704,7 +4489,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4719,7 +4504,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4734,7 +4519,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4795,7 +4580,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -4879,7 +4664,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4894,10 +4679,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4909,7 +4694,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4924,7 +4709,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4939,7 +4724,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4970,7 +4755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
@@ -4985,7 +4770,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5000,10 +4785,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5015,7 +4800,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5030,7 +4815,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5045,7 +4830,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5076,7 +4861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
@@ -5091,7 +4876,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5106,10 +4891,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5121,7 +4906,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5136,7 +4921,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5151,7 +4936,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5182,7 +4967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
@@ -5197,7 +4982,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5212,10 +4997,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5227,7 +5012,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5242,7 +5027,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5257,7 +5042,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5286,10 +5071,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5303,7 +5088,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5318,10 +5103,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5332,11 +5117,11 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
+      <c r="A3" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -5345,44 +5130,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5392,7 +5146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
@@ -5407,7 +5161,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5422,10 +5176,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5437,7 +5191,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5452,7 +5206,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5467,7 +5221,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5498,7 +5252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -5513,7 +5267,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5528,10 +5282,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5543,7 +5297,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5558,7 +5312,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5573,7 +5327,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5616,7 +5370,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5631,10 +5385,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5646,7 +5400,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5661,7 +5415,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5676,7 +5430,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5707,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
@@ -5720,7 +5474,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5735,10 +5489,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5750,7 +5504,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5765,7 +5519,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5780,7 +5534,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5853,7 +5607,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -5952,7 +5706,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -6051,7 +5805,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -6150,7 +5904,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -6219,7 +5973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6249,7 +6003,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>

--- a/docs/OVW Sheets/OVWDemo_service_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_service_listing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="37" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,6 @@
     <sheet name="de_at" sheetId="46" r:id="rId46"/>
     <sheet name="en_be" sheetId="47" r:id="rId47"/>
     <sheet name="fr_be" sheetId="48" r:id="rId48"/>
-    <sheet name="Sheet25" sheetId="49" r:id="rId49"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -1148,7 +1147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5561,18 +5560,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>

--- a/docs/OVW Sheets/OVWDemo_service_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_service_listing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\OVW Sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="37" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="37" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -50,7 +55,7 @@
     <sheet name="zh_tw" sheetId="41" r:id="rId41"/>
     <sheet name="ru_ua" sheetId="42" r:id="rId42"/>
     <sheet name="en_za" sheetId="43" r:id="rId43"/>
-    <sheet name="ua_uk" sheetId="44" r:id="rId44"/>
+    <sheet name="uk_ua" sheetId="44" r:id="rId44"/>
     <sheet name="en_au" sheetId="45" r:id="rId45"/>
     <sheet name="de_at" sheetId="46" r:id="rId46"/>
     <sheet name="en_be" sheetId="47" r:id="rId47"/>
@@ -66,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="236">
   <si>
     <t>http://www.cisco.com/web/DE/solutions/collaboration/services.html</t>
   </si>
@@ -771,13 +776,16 @@
   </si>
   <si>
     <t>http://www.cisco.com/c/en/us/products/sservers-unified-computing/service-listing.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/uk/solutions/datacenter/services.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +804,26 @@
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -854,14 +882,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -874,10 +954,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="30">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 10" xfId="23"/>
+    <cellStyle name="Hyperlink 11" xfId="24"/>
+    <cellStyle name="Hyperlink 12" xfId="27"/>
+    <cellStyle name="Hyperlink 13" xfId="26"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2 2" xfId="28"/>
+    <cellStyle name="Hyperlink 3" xfId="29"/>
+    <cellStyle name="Hyperlink 5" xfId="22"/>
+    <cellStyle name="Hyperlink 6" xfId="25"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 10" xfId="4"/>
+    <cellStyle name="Normal 2 112" xfId="5"/>
+    <cellStyle name="Normal 2 13" xfId="6"/>
+    <cellStyle name="Normal 2 14" xfId="7"/>
+    <cellStyle name="Normal 2 15" xfId="8"/>
+    <cellStyle name="Normal 2 17" xfId="9"/>
+    <cellStyle name="Normal 2 18" xfId="10"/>
+    <cellStyle name="Normal 2 2 2" xfId="11"/>
+    <cellStyle name="Normal 2 3 2" xfId="12"/>
+    <cellStyle name="Normal 2 36" xfId="13"/>
+    <cellStyle name="Normal 2 51" xfId="14"/>
+    <cellStyle name="Normal 2 67" xfId="15"/>
+    <cellStyle name="Normal 2 82" xfId="16"/>
+    <cellStyle name="Normal 2 99" xfId="17"/>
+    <cellStyle name="Normal 4 2" xfId="18"/>
+    <cellStyle name="Normal 5" xfId="19"/>
+    <cellStyle name="Normal 6" xfId="20"/>
+    <cellStyle name="Normal 7" xfId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1147,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5072,13 +5181,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
@@ -5101,8 +5210,8 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>128</v>
+      <c r="A2" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>233</v>
@@ -5134,8 +5243,8 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
     <hyperlink ref="A1" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5460,7 +5569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>

--- a/docs/OVW Sheets/OVWDemo_service_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_service_listing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="37" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="25" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="de_de" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="235">
   <si>
     <t>http://www.cisco.com/web/DE/solutions/collaboration/services.html</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/GR/solutions/datacenter/services.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/GR/solutions/datacenter/solutions.html</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/GR/solutions/collaboration/services.html</t>
@@ -1266,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1402,7 +1399,7 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1569,7 +1566,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1666,7 +1663,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1765,7 +1762,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1863,7 +1860,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
@@ -1965,7 +1962,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1980,7 +1977,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2022,7 +2019,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2037,10 +2034,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2052,7 +2049,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2082,7 +2079,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2125,7 +2122,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2140,10 +2137,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2185,7 +2182,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2228,7 +2225,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2243,10 +2240,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2258,7 +2255,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2273,7 +2270,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2288,7 +2285,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2320,7 +2317,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2346,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2430,7 +2427,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2445,10 +2442,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2475,7 +2472,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2490,7 +2487,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2533,7 +2530,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2548,7 +2545,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2563,7 +2560,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2589,21 +2586,22 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2618,25 +2616,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2645,30 +2643,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="A1" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2708,7 +2689,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2813,7 +2794,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2901,7 +2882,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2916,7 +2897,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2931,7 +2912,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2974,7 +2955,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2986,12 +2967,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -3003,12 +2984,12 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -3020,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +3037,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3068,15 +3049,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3085,12 +3066,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3102,12 +3083,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3119,12 +3100,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3136,7 +3117,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3158,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3189,15 +3170,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3206,12 +3187,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3223,12 +3204,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3240,12 +3221,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3257,7 +3238,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3279,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3313,10 +3294,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3328,7 +3309,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3343,7 +3324,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3358,7 +3339,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3416,7 +3397,7 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -3477,7 +3458,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -3564,7 +3545,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3579,10 +3560,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3594,7 +3575,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3609,7 +3590,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3624,7 +3605,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3670,7 +3651,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3682,15 +3663,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3699,12 +3680,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3716,12 +3697,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3733,12 +3714,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3750,7 +3731,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3791,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3806,10 +3787,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3821,7 +3802,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3836,7 +3817,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3851,7 +3832,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3897,7 +3878,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3909,15 +3890,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3926,12 +3907,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3943,12 +3924,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3960,12 +3941,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3977,7 +3958,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4003,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,7 +3999,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4029,16 +4010,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4046,13 +4025,11 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>234</v>
-      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4063,13 +4040,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4080,13 +4055,11 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4097,24 +4070,17 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
     <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A4" r:id="rId11"/>
-    <hyperlink ref="A5" r:id="rId12"/>
+    <hyperlink ref="A1" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4139,7 +4105,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4151,15 +4117,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4168,12 +4134,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4185,12 +4151,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4202,12 +4168,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4219,7 +4185,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4260,7 +4226,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4272,12 +4238,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -4289,12 +4255,12 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -4306,7 +4272,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4308,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4354,15 +4320,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4371,12 +4337,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4388,12 +4354,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4405,12 +4371,12 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4422,7 +4388,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4463,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4478,10 +4444,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4493,7 +4459,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4508,7 +4474,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4523,7 +4489,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4567,7 +4533,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4582,10 +4548,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4597,7 +4563,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4612,7 +4578,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4627,7 +4593,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4688,7 +4654,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -4772,7 +4738,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4787,10 +4753,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4802,7 +4768,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4817,7 +4783,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4832,7 +4798,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4878,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4893,10 +4859,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4908,7 +4874,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -4923,7 +4889,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -4938,7 +4904,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4984,7 +4950,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4999,10 +4965,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5014,7 +4980,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5029,7 +4995,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5044,7 +5010,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5090,7 +5056,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5105,10 +5071,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5120,7 +5086,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5135,7 +5101,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5150,7 +5116,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5181,7 +5147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5196,7 +5162,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5211,10 +5177,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5226,7 +5192,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -5269,7 +5235,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5284,10 +5250,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5299,7 +5265,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5314,7 +5280,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5329,7 +5295,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5375,7 +5341,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5390,10 +5356,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5405,7 +5371,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5420,7 +5386,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5435,7 +5401,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5478,7 +5444,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5493,10 +5459,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5508,7 +5474,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5523,7 +5489,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5538,7 +5504,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5582,7 +5548,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5597,10 +5563,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -5612,7 +5578,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -5627,7 +5593,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -5642,7 +5608,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -5703,7 +5669,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -5802,7 +5768,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -5901,7 +5867,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -6000,7 +5966,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -6099,7 +6065,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>

--- a/docs/OVW Sheets/OVWDemo_service_listing.xlsx
+++ b/docs/OVW Sheets/OVWDemo_service_listing.xlsx
@@ -5,58 +5,58 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 28\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="25" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755" firstSheet="37" activeTab="47"/>
   </bookViews>
   <sheets>
-    <sheet name="de_de" sheetId="1" r:id="rId1"/>
-    <sheet name="ja_jp" sheetId="2" r:id="rId2"/>
-    <sheet name="zh_cn" sheetId="3" r:id="rId3"/>
-    <sheet name="en_gb" sheetId="4" r:id="rId4"/>
-    <sheet name="ru_ru" sheetId="5" r:id="rId5"/>
-    <sheet name="es_mx" sheetId="6" r:id="rId6"/>
+    <sheet name="ar_ae" sheetId="8" r:id="rId1"/>
+    <sheet name="en_gb" sheetId="4" r:id="rId2"/>
+    <sheet name="es_mx" sheetId="6" r:id="rId3"/>
+    <sheet name="de_de" sheetId="1" r:id="rId4"/>
+    <sheet name="fr_fr" sheetId="9" r:id="rId5"/>
+    <sheet name="ja_jp" sheetId="2" r:id="rId6"/>
     <sheet name="pt_br" sheetId="7" r:id="rId7"/>
-    <sheet name="ar_ae" sheetId="8" r:id="rId8"/>
-    <sheet name="fr_fr" sheetId="9" r:id="rId9"/>
-    <sheet name="nl_be" sheetId="10" r:id="rId10"/>
-    <sheet name="bg_bg" sheetId="11" r:id="rId11"/>
-    <sheet name="en_ca" sheetId="12" r:id="rId12"/>
-    <sheet name="fr_ca" sheetId="13" r:id="rId13"/>
-    <sheet name="de_ch" sheetId="14" r:id="rId14"/>
-    <sheet name="fr_ch" sheetId="15" r:id="rId15"/>
-    <sheet name="cs_cz" sheetId="16" r:id="rId16"/>
-    <sheet name="da_dk" sheetId="17" r:id="rId17"/>
-    <sheet name="en_dz" sheetId="18" r:id="rId18"/>
-    <sheet name="fr_dz" sheetId="19" r:id="rId19"/>
-    <sheet name="es_es" sheetId="20" r:id="rId20"/>
-    <sheet name="fi_fi" sheetId="21" r:id="rId21"/>
-    <sheet name="el_gr" sheetId="22" r:id="rId22"/>
-    <sheet name="en_hk" sheetId="23" r:id="rId23"/>
-    <sheet name="zh_hk" sheetId="24" r:id="rId24"/>
-    <sheet name="hu_hu" sheetId="25" r:id="rId25"/>
-    <sheet name="en_id" sheetId="26" r:id="rId26"/>
-    <sheet name="en_il" sheetId="27" r:id="rId27"/>
-    <sheet name="en_in" sheetId="28" r:id="rId28"/>
-    <sheet name="it_it" sheetId="29" r:id="rId29"/>
-    <sheet name="ko_kr" sheetId="30" r:id="rId30"/>
-    <sheet name="en_ae" sheetId="31" r:id="rId31"/>
-    <sheet name="nl_nl" sheetId="32" r:id="rId32"/>
-    <sheet name="no_no" sheetId="33" r:id="rId33"/>
-    <sheet name="pl_pl" sheetId="34" r:id="rId34"/>
-    <sheet name="pt_pt" sheetId="35" r:id="rId35"/>
-    <sheet name="ro_ro" sheetId="36" r:id="rId36"/>
-    <sheet name="sv_se" sheetId="37" r:id="rId37"/>
-    <sheet name="en_sg" sheetId="38" r:id="rId38"/>
-    <sheet name="th_th" sheetId="39" r:id="rId39"/>
-    <sheet name="tr_tr" sheetId="40" r:id="rId40"/>
-    <sheet name="zh_tw" sheetId="41" r:id="rId41"/>
-    <sheet name="ru_ua" sheetId="42" r:id="rId42"/>
-    <sheet name="en_za" sheetId="43" r:id="rId43"/>
-    <sheet name="uk_ua" sheetId="44" r:id="rId44"/>
-    <sheet name="en_au" sheetId="45" r:id="rId45"/>
+    <sheet name="ru_ru" sheetId="5" r:id="rId8"/>
+    <sheet name="zh_cn" sheetId="3" r:id="rId9"/>
+    <sheet name="en_au" sheetId="45" r:id="rId10"/>
+    <sheet name="nl_be" sheetId="10" r:id="rId11"/>
+    <sheet name="bg_bg" sheetId="11" r:id="rId12"/>
+    <sheet name="en_ca" sheetId="12" r:id="rId13"/>
+    <sheet name="fr_ca" sheetId="13" r:id="rId14"/>
+    <sheet name="de_ch" sheetId="14" r:id="rId15"/>
+    <sheet name="fr_ch" sheetId="15" r:id="rId16"/>
+    <sheet name="cs_cz" sheetId="16" r:id="rId17"/>
+    <sheet name="da_dk" sheetId="17" r:id="rId18"/>
+    <sheet name="en_dz" sheetId="18" r:id="rId19"/>
+    <sheet name="fr_dz" sheetId="19" r:id="rId20"/>
+    <sheet name="es_es" sheetId="20" r:id="rId21"/>
+    <sheet name="fi_fi" sheetId="21" r:id="rId22"/>
+    <sheet name="el_gr" sheetId="22" r:id="rId23"/>
+    <sheet name="en_hk" sheetId="23" r:id="rId24"/>
+    <sheet name="zh_hk" sheetId="24" r:id="rId25"/>
+    <sheet name="hu_hu" sheetId="25" r:id="rId26"/>
+    <sheet name="en_id" sheetId="26" r:id="rId27"/>
+    <sheet name="en_il" sheetId="27" r:id="rId28"/>
+    <sheet name="en_in" sheetId="28" r:id="rId29"/>
+    <sheet name="it_it" sheetId="29" r:id="rId30"/>
+    <sheet name="ko_kr" sheetId="30" r:id="rId31"/>
+    <sheet name="en_ae" sheetId="31" r:id="rId32"/>
+    <sheet name="nl_nl" sheetId="32" r:id="rId33"/>
+    <sheet name="no_no" sheetId="33" r:id="rId34"/>
+    <sheet name="pl_pl" sheetId="34" r:id="rId35"/>
+    <sheet name="pt_pt" sheetId="35" r:id="rId36"/>
+    <sheet name="ro_ro" sheetId="36" r:id="rId37"/>
+    <sheet name="sv_se" sheetId="37" r:id="rId38"/>
+    <sheet name="en_sg" sheetId="38" r:id="rId39"/>
+    <sheet name="th_th" sheetId="39" r:id="rId40"/>
+    <sheet name="tr_tr" sheetId="40" r:id="rId41"/>
+    <sheet name="zh_tw" sheetId="41" r:id="rId42"/>
+    <sheet name="ru_ua" sheetId="42" r:id="rId43"/>
+    <sheet name="en_za" sheetId="43" r:id="rId44"/>
+    <sheet name="uk_ua" sheetId="44" r:id="rId45"/>
     <sheet name="de_at" sheetId="46" r:id="rId46"/>
     <sheet name="en_be" sheetId="47" r:id="rId47"/>
     <sheet name="fr_be" sheetId="48" r:id="rId48"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="191">
   <si>
     <t>http://www.cisco.com/web/DE/solutions/collaboration/services.html</t>
   </si>
@@ -139,9 +139,6 @@
     <t>service-listing-var2</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/JP/product/hs/ucs/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/JP/solution/datacenter/services.html</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>http://www.cisco.com/web/JP/product/hs/security/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CN/products/products_netsol/ucs/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CN/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>http://www.cisco.com/web/CN/products/products_netsol/security/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/cisco/web/UK/products/unified_computing/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/cisco/web/UK/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
     <t>http://www.cisco.com/cisco/web/UK/products/security/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/RU/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/RU/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>http://www.cisco.com/web/RU/products/security/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/soluciones/datacenter/services.html</t>
   </si>
   <si>
@@ -208,12 +193,6 @@
     <t>http://www.cisco.com/web/BR/solucoes/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BR/produtos/uc/services.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/ar/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ME/ar/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -232,15 +211,9 @@
     <t>http://www.cisco.com/web/FR/solutions/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/FR/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/nl/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/nl/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/nl/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t>http://www.cisco.com/web/CA/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -283,18 +253,12 @@
     <t>http://www.cisco.com/web/CA/solutions/datacenter/services_fr.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/services_fr.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CA/solutions/collaboration/services_fr.html</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/CH/de/solution/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CH/de/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CH/de/solution/datacenter/services.html</t>
   </si>
   <si>
@@ -307,9 +271,6 @@
     <t>http://www.cisco.com/web/CH/fr/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/CH/fr/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CH/fr/solutions/DataCenter/services.html</t>
   </si>
   <si>
@@ -331,9 +292,6 @@
     <t>http://www.cisco.com/web/HK/solution_tc/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/HK/tc/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/HK/solution_tc/collaboration/services.html</t>
   </si>
   <si>
@@ -346,9 +304,6 @@
     <t>http://www.cisco.com/web/HK/solutions/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/HK/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/HK/solutions/collaboration/services.html</t>
   </si>
   <si>
@@ -379,9 +334,6 @@
     <t>http://www.cisco.com/web/ES/solutions/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ES/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ES/solutions/collaboration/services.html</t>
   </si>
   <si>
@@ -394,9 +346,6 @@
     <t>http://www.cisco.com/web/EA/solutions/FR/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/EA/products/FR/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/EA/solutions/FR/collaboration/services.html</t>
   </si>
   <si>
@@ -409,9 +358,6 @@
     <t>http://www.cisco.com/web/EA/solutions/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/EA/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/EA/solutions/collaboration/services.html</t>
   </si>
   <si>
@@ -424,9 +370,6 @@
     <t>http://www.cisco.com/web/DK/solutions/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/DK/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/DK/solutions/collaboration/services.html</t>
   </si>
   <si>
@@ -448,30 +391,15 @@
     <t>http://www.cisco.com/web/ID/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/c/en/us/solutions/collaboration/service-listing.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ID/solutions/datacenter/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ID/solutions/borderless/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/c/en/us/solutions/enterprise-networks/service-listing.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/c/en/us/products/security/service-listing.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/IL/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/IL/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/IL/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -499,9 +427,6 @@
     <t>http://www.cisco.com/web/KR/networking/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/KR/products/pc/unified_computing/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/KR/networking/datacenter/services.html</t>
   </si>
   <si>
@@ -514,9 +439,6 @@
     <t>http://www.cisco.com/web/ME/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ME/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ME/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -529,9 +451,6 @@
     <t>http://www.cisco.com/web/NL/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/NL/producten/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/NL/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -544,9 +463,6 @@
     <t>http://www.cisco.com/web/NO/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/NO/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/NO/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -559,9 +475,6 @@
     <t>http://www.cisco.com/web/PL/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/PL/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/PL/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -574,9 +487,6 @@
     <t>http://www.cisco.com/web/PT/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/PT/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/PT/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -598,9 +508,6 @@
     <t>http://www.cisco.com/web/SE/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/SE/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/SE/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -613,9 +520,6 @@
     <t>http://www.cisco.com/web/SG/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/SG/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/SG/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -628,9 +532,6 @@
     <t>http://www.cisco.com/web/TH/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TH/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TH/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -643,9 +544,6 @@
     <t>http://www.cisco.com/web/TR/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TR/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TR/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -658,9 +556,6 @@
     <t>http://www.cisco.com/web/TW/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/TW/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/TW/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -673,9 +568,6 @@
     <t>http://www.cisco.com/web/UA/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/UA/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/UA/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -688,9 +580,6 @@
     <t>http://www.cisco.com/web/ZA/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ZA/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ZA/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -709,9 +598,6 @@
     <t>http://www.cisco.com/web/ANZ/netsol/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/ANZ/products/unified_computing/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/ANZ/netsol/datacenter/services.html</t>
   </si>
   <si>
@@ -724,9 +610,6 @@
     <t>http://www.cisco.com/web/AT/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/AT/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/AT/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -739,9 +622,6 @@
     <t>http://www.cisco.com/web/BE/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -754,9 +634,6 @@
     <t>http://www.cisco.com/web/BE/fr/solutions/collaboration/services.html</t>
   </si>
   <si>
-    <t>http://www.cisco.com/web/BE/fr/products/uc/services.html</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/BE/fr/solutions/datacenter/services.html</t>
   </si>
   <si>
@@ -767,15 +644,6 @@
   </si>
   <si>
     <t>servers-unified-computing</t>
-  </si>
-  <si>
-    <t>sservers-unified-computing</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/c/en/us/products/sservers-unified-computing/service-listing.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/UA/uk/solutions/datacenter/services.html</t>
   </si>
 </sst>
 </file>
@@ -938,7 +806,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -951,7 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1261,23 +1128,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1288,101 +1154,171 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A2" r:id="rId3"/>
     <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76" customWidth="1"/>
+    <col min="1" max="1" width="75.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="82.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1396,24 +1332,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1424,47 +1360,31 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1481,7 +1401,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1495,7 +1415,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1509,7 +1429,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1532,12 +1452,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1469,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1563,24 +1483,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1591,51 +1511,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1646,7 +1552,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1659,25 +1565,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
+      <c r="A2" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1688,52 +1594,36 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1759,24 +1649,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1787,149 +1677,123 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="78.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="20.28515625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="7"/>
+    <col min="4" max="4" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.28515625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1947,7 +1811,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1962,7 +1826,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1977,7 +1841,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2001,12 +1865,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,7 +1883,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2034,25 +1898,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2064,146 +1928,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E1:E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="76" customWidth="1"/>
-    <col min="5" max="5" width="61.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2214,18 +1961,20 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E1:E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.7109375" customWidth="1"/>
-    <col min="5" max="5" width="69.85546875" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>108</v>
+      <c r="A1" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2239,74 +1988,60 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>107</v>
+      <c r="A2" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2314,22 +2049,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2342,70 +2077,54 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2416,18 +2135,20 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.42578125" customWidth="1"/>
-    <col min="5" max="5" width="73.140625" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2442,25 +2163,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2472,43 +2193,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2516,21 +2223,23 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" customWidth="1"/>
-    <col min="5" max="5" width="72.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>98</v>
+      <c r="A1" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2544,8 +2253,8 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
+      <c r="A2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2559,8 +2268,8 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>96</v>
+      <c r="A3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2572,13 +2281,32 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A1" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2589,19 +2317,20 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2616,7 +2345,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2631,7 +2360,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2657,21 +2386,23 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E1:E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5703125" customWidth="1"/>
-    <col min="5" max="5" width="82.5703125" customWidth="1"/>
+    <col min="1" max="1" width="69.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>92</v>
+      <c r="A1" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2685,26 +2416,26 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
+      <c r="A2" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>90</v>
+      <c r="A3" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2713,46 +2444,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,7 +2461,98 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,7 +2565,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2791,128 +2580,22 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2924,13 +2607,32 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2946,16 +2648,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2966,13 +2668,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2983,13 +2683,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>128</v>
+      <c r="A3" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -3000,19 +2698,14 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="A1" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A3" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3020,24 +2713,24 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>131</v>
+      <c r="A1" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3048,33 +2741,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>233</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -3082,58 +2771,14 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="E3" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A4" r:id="rId11"/>
-    <hyperlink ref="A5" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3144,21 +2789,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>136</v>
+      <c r="A1" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3169,92 +2814,63 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="A1" r:id="rId7"/>
-    <hyperlink ref="A2" r:id="rId8"/>
-    <hyperlink ref="E3" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A4" r:id="rId11"/>
-    <hyperlink ref="A5" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3265,21 +2881,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3294,10 +2910,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -3309,7 +2925,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3324,7 +2940,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -3339,273 +2955,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A4" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="72.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="19.7109375" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="B7" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B8" r:id="rId5" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3632,26 +2982,201 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3662,33 +3187,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>147</v>
+      <c r="A2" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>233</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -3696,58 +3217,32 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>129</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A4" r:id="rId11"/>
-    <hyperlink ref="A5" r:id="rId12"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3758,21 +3253,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E7"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3787,25 +3282,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -3817,43 +3312,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3864,21 +3345,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>156</v>
+      <c r="A1" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3889,92 +3370,63 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>157</v>
+      <c r="A2" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A4" r:id="rId11"/>
-    <hyperlink ref="A5" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3984,22 +3436,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4014,25 +3466,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4043,44 +3495,30 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>164</v>
+      <c r="A4" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4091,21 +3529,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
+      <c r="A1" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4116,33 +3554,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>167</v>
+      <c r="A2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>233</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4150,58 +3584,33 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>169</v>
+      <c r="A4" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>129</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A4" r:id="rId11"/>
-    <hyperlink ref="A5" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4209,24 +3618,24 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>171</v>
+      <c r="A1" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4237,13 +3646,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>172</v>
+      <c r="A2" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -4254,13 +3661,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>173</v>
+      <c r="A3" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -4271,19 +3676,33 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="A1" r:id="rId5"/>
-    <hyperlink ref="A2" r:id="rId6"/>
-    <hyperlink ref="A3" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4291,24 +3710,24 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4319,33 +3738,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>175</v>
+      <c r="A2" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>233</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4353,58 +3768,14 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="E1" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="A1" r:id="rId8"/>
-    <hyperlink ref="A2" r:id="rId9"/>
-    <hyperlink ref="A3" r:id="rId10"/>
-    <hyperlink ref="A4" r:id="rId11"/>
-    <hyperlink ref="A5" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4415,21 +3786,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>179</v>
+      <c r="A1" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4443,74 +3814,60 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>180</v>
+      <c r="A2" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4520,20 +3877,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4548,25 +3907,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4578,43 +3937,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4622,22 +3967,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4648,74 +3994,80 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
     <hyperlink ref="A4" r:id="rId6"/>
     <hyperlink ref="A5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4724,7 +4076,99 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E6"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,7 +4182,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4753,25 +4197,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4783,149 +4227,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="99.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="96.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4936,21 +4260,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="87.28515625" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="96.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4964,26 +4288,26 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>200</v>
+      <c r="A2" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -4995,43 +4319,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5042,21 +4352,21 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="83.28515625" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5071,25 +4381,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -5101,43 +4411,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5145,10 +4441,102 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5162,7 +4550,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5176,147 +4564,27 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>234</v>
+      <c r="A2" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="75.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="82.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5327,7 +4595,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5341,7 +4609,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5355,26 +4623,26 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>217</v>
+      <c r="A2" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -5386,43 +4654,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5432,7 +4686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5444,7 +4700,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5459,25 +4715,25 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -5488,44 +4744,30 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>224</v>
+      <c r="A4" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5535,20 +4777,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.5703125" customWidth="1"/>
     <col min="6" max="6" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -5562,26 +4806,26 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>227</v>
+      <c r="A2" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -5593,43 +4837,29 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A1" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5637,10 +4867,259 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,26 +5143,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
@@ -5692,340 +5171,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A3" r:id="rId6"/>
-    <hyperlink ref="A2" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="A3" r:id="rId5"/>
-    <hyperlink ref="A4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6033,39 +5199,36 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="19.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -6075,9 +5238,6 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -6089,9 +5249,6 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -6103,9 +5260,6 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
@@ -6113,6 +5267,62 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6121,10 +5331,11 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2" display="http://www.cisco.com/c/en/us/products/servers-unified-computing/service-listing.html"/>
     <hyperlink ref="B3" r:id="rId3" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A3" r:id="rId6"/>
-    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId4" display="http://www.cisco.com/c/en/us/solutions/data-center-virtualization/service-listing.html"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
